--- a/Data/Processing/2024-02-02/ANGELONE.xlsx
+++ b/Data/Processing/2024-02-02/ANGELONE.xlsx
@@ -669,7 +669,7 @@
         <v>1181.15</v>
       </c>
       <c r="D3">
-        <v>1163.92</v>
+        <v>1163.91</v>
       </c>
       <c r="E3">
         <v>1167.86</v>
@@ -690,13 +690,13 @@
         <v>0.14</v>
       </c>
       <c r="K3">
-        <v>-1.33</v>
+        <v>-1.34</v>
       </c>
       <c r="L3">
         <v>-2.39</v>
       </c>
       <c r="M3">
-        <v>0.3400000000000001</v>
+        <v>0.3500000000000001</v>
       </c>
       <c r="N3">
         <v>1.46</v>
@@ -2322,7 +2322,7 @@
         <v>1086.09</v>
       </c>
       <c r="E36">
-        <v>1102.5</v>
+        <v>1102.51</v>
       </c>
       <c r="F36">
         <v>1151.16</v>
@@ -2375,7 +2375,7 @@
         <v>1096.13</v>
       </c>
       <c r="F37">
-        <v>1102.5</v>
+        <v>1102.51</v>
       </c>
       <c r="G37">
         <v>393607</v>
@@ -2393,7 +2393,7 @@
         <v>-1.86</v>
       </c>
       <c r="L37">
-        <v>2.98</v>
+        <v>2.97</v>
       </c>
       <c r="M37">
         <v>1.01</v>
@@ -2802,7 +2802,7 @@
         <v>1.88</v>
       </c>
       <c r="O45">
-        <v>1093.051818181818</v>
+        <v>1093.052045454546</v>
       </c>
       <c r="P45">
         <v>0</v>
@@ -2852,7 +2852,7 @@
         <v>2.21</v>
       </c>
       <c r="O46">
-        <v>1094.113409090909</v>
+        <v>1094.113636363636</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -2902,7 +2902,7 @@
         <v>1.33</v>
       </c>
       <c r="O47">
-        <v>1095.777272727273</v>
+        <v>1095.7775</v>
       </c>
       <c r="P47">
         <v>0</v>
@@ -2952,7 +2952,7 @@
         <v>2.36</v>
       </c>
       <c r="O48">
-        <v>1098.424318181818</v>
+        <v>1098.424545454546</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>5.19</v>
       </c>
       <c r="O49">
-        <v>1101.708181818182</v>
+        <v>1101.708409090909</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>3.6</v>
       </c>
       <c r="O50">
-        <v>1104.978636363636</v>
+        <v>1104.978863636364</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -3102,7 +3102,7 @@
         <v>3.66</v>
       </c>
       <c r="O51">
-        <v>1107.457954545454</v>
+        <v>1107.458181818182</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -3152,7 +3152,7 @@
         <v>3.14</v>
       </c>
       <c r="O52">
-        <v>1109.63</v>
+        <v>1109.630227272727</v>
       </c>
       <c r="P52">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>1.86</v>
       </c>
       <c r="O53">
-        <v>1112.395227272727</v>
+        <v>1112.395454545455</v>
       </c>
       <c r="P53">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>2.97</v>
       </c>
       <c r="O54">
-        <v>1114.796818181818</v>
+        <v>1114.797045454545</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -3302,7 +3302,7 @@
         <v>1.68</v>
       </c>
       <c r="O55">
-        <v>1117.188181818182</v>
+        <v>1117.188409090909</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>1.51</v>
       </c>
       <c r="O56">
-        <v>1120.100454545455</v>
+        <v>1120.100681818182</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -3402,7 +3402,7 @@
         <v>1.42</v>
       </c>
       <c r="O57">
-        <v>1123.421590909091</v>
+        <v>1123.421818181818</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -3452,7 +3452,7 @@
         <v>1.54</v>
       </c>
       <c r="O58">
-        <v>1126.984545454545</v>
+        <v>1126.984772727273</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         <v>1.87</v>
       </c>
       <c r="O59">
-        <v>1130.593409090909</v>
+        <v>1130.593636363637</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -3552,7 +3552,7 @@
         <v>1.5</v>
       </c>
       <c r="O60">
-        <v>1134.167727272727</v>
+        <v>1134.167954545454</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0.88</v>
       </c>
       <c r="O61">
-        <v>1137.990909090909</v>
+        <v>1137.991136363636</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -3652,7 +3652,7 @@
         <v>6.18</v>
       </c>
       <c r="O62">
-        <v>1143.361136363636</v>
+        <v>1143.361363636364</v>
       </c>
       <c r="P62">
         <v>0</v>
@@ -3702,7 +3702,7 @@
         <v>3.09</v>
       </c>
       <c r="O63">
-        <v>1149.812045454545</v>
+        <v>1149.812272727273</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>3.24</v>
       </c>
       <c r="O64">
-        <v>1157.087954545455</v>
+        <v>1157.088181818182</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>3.3</v>
       </c>
       <c r="O65">
-        <v>1162.596590909091</v>
+        <v>1162.596818181818</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -3852,7 +3852,7 @@
         <v>3</v>
       </c>
       <c r="O66">
-        <v>1167.235</v>
+        <v>1167.235227272727</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>1.45</v>
       </c>
       <c r="O67">
-        <v>1171.58</v>
+        <v>1171.580227272727</v>
       </c>
       <c r="P67">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>2.44</v>
       </c>
       <c r="O68">
-        <v>1175.236818181818</v>
+        <v>1175.237045454546</v>
       </c>
       <c r="P68">
         <v>0</v>
@@ -4002,7 +4002,7 @@
         <v>3.25</v>
       </c>
       <c r="O69">
-        <v>1178.768863636363</v>
+        <v>1178.769090909091</v>
       </c>
       <c r="P69">
         <v>0</v>
@@ -4052,7 +4052,7 @@
         <v>3.22</v>
       </c>
       <c r="O70">
-        <v>1180.983636363637</v>
+        <v>1180.983863636364</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -4102,7 +4102,7 @@
         <v>4.66</v>
       </c>
       <c r="O71">
-        <v>1183.591136363636</v>
+        <v>1183.591363636364</v>
       </c>
       <c r="P71">
         <v>1</v>
@@ -4152,7 +4152,7 @@
         <v>5.14</v>
       </c>
       <c r="O72">
-        <v>1187.7725</v>
+        <v>1187.772727272727</v>
       </c>
       <c r="P72">
         <v>1</v>
@@ -4202,7 +4202,7 @@
         <v>5.49</v>
       </c>
       <c r="O73">
-        <v>1190.972045454545</v>
+        <v>1190.972272727273</v>
       </c>
       <c r="P73">
         <v>1</v>
@@ -4252,7 +4252,7 @@
         <v>2.04</v>
       </c>
       <c r="O74">
-        <v>1194.952272727273</v>
+        <v>1194.9525</v>
       </c>
       <c r="P74">
         <v>1</v>
@@ -4302,7 +4302,7 @@
         <v>1.97</v>
       </c>
       <c r="O75">
-        <v>1198.198863636364</v>
+        <v>1198.199090909091</v>
       </c>
       <c r="P75">
         <v>1</v>
@@ -4352,7 +4352,7 @@
         <v>3.98</v>
       </c>
       <c r="O76">
-        <v>1202.828409090909</v>
+        <v>1202.828636363636</v>
       </c>
       <c r="P76">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>2.58</v>
       </c>
       <c r="O77">
-        <v>1207.985681818182</v>
+        <v>1207.985909090909</v>
       </c>
       <c r="P77">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>2.12</v>
       </c>
       <c r="O78">
-        <v>1211.85</v>
+        <v>1211.850227272727</v>
       </c>
       <c r="P78">
         <v>0</v>
@@ -4502,7 +4502,7 @@
         <v>5.35</v>
       </c>
       <c r="O79">
-        <v>1215.719318181818</v>
+        <v>1215.719545454545</v>
       </c>
       <c r="P79">
         <v>0</v>
@@ -4919,7 +4919,7 @@
         <v>1503.68</v>
       </c>
       <c r="D88">
-        <v>1457.43</v>
+        <v>1457.42</v>
       </c>
       <c r="E88">
         <v>1500.98</v>
@@ -5402,7 +5402,7 @@
         <v>5.56</v>
       </c>
       <c r="O97">
-        <v>1339.501136363637</v>
+        <v>1339.501136363636</v>
       </c>
       <c r="P97">
         <v>0</v>
@@ -5766,7 +5766,7 @@
         <v>1734.89</v>
       </c>
       <c r="C105">
-        <v>1754.18</v>
+        <v>1754.19</v>
       </c>
       <c r="D105">
         <v>1678.86</v>
@@ -5952,7 +5952,7 @@
         <v>1.7</v>
       </c>
       <c r="O108">
-        <v>1462.298863636364</v>
+        <v>1462.298863636363</v>
       </c>
       <c r="P108">
         <v>0</v>
@@ -6302,7 +6302,7 @@
         <v>5.24</v>
       </c>
       <c r="O115">
-        <v>1514.148636363637</v>
+        <v>1514.148636363636</v>
       </c>
       <c r="P115">
         <v>0</v>
@@ -6452,7 +6452,7 @@
         <v>1.94</v>
       </c>
       <c r="O118">
-        <v>1540.012954545455</v>
+        <v>1540.012954545454</v>
       </c>
       <c r="P118">
         <v>0</v>
@@ -7252,7 +7252,7 @@
         <v>2.09</v>
       </c>
       <c r="O134">
-        <v>1627.098636363637</v>
+        <v>1627.098636363636</v>
       </c>
       <c r="P134">
         <v>0</v>
@@ -7452,7 +7452,7 @@
         <v>4.44</v>
       </c>
       <c r="O138">
-        <v>1642.710454545455</v>
+        <v>1642.710454545454</v>
       </c>
       <c r="P138">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>1866.69</v>
       </c>
       <c r="D151">
-        <v>1745.22</v>
+        <v>1745.21</v>
       </c>
       <c r="E151">
         <v>1753.68</v>
@@ -8652,7 +8652,7 @@
         <v>4.39</v>
       </c>
       <c r="O162">
-        <v>1742.255454545454</v>
+        <v>1742.255454545455</v>
       </c>
       <c r="P162">
         <v>0</v>
@@ -9152,7 +9152,7 @@
         <v>8.84</v>
       </c>
       <c r="O172">
-        <v>1838.736363636364</v>
+        <v>1838.736363636363</v>
       </c>
       <c r="P172">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>9.02</v>
       </c>
       <c r="O193">
-        <v>2181.981363636364</v>
+        <v>2181.981363636363</v>
       </c>
       <c r="P193">
         <v>0</v>
@@ -11352,7 +11352,7 @@
         <v>3.35</v>
       </c>
       <c r="O216">
-        <v>2784.317727272727</v>
+        <v>2784.317727272728</v>
       </c>
       <c r="P216">
         <v>0</v>
@@ -12601,7 +12601,7 @@
         <v>1.95</v>
       </c>
       <c r="O233">
-        <v>3207.6575</v>
+        <v>3207.657500000001</v>
       </c>
       <c r="P233">
         <v>0</v>
